--- a/dbms/Problems 1.xlsx
+++ b/dbms/Problems 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="206">
   <si>
     <t>}</t>
   </si>
@@ -584,24 +584,9 @@
     <t>THEN ANIMATOR.ANIMATE = SEASON.SEASON</t>
   </si>
   <si>
-    <t>А1+А2+А5</t>
-  </si>
-  <si>
     <t>Страна</t>
   </si>
   <si>
-    <t>Считаю, что такой ключ сможет дать верный фильм по следующим причинам:</t>
-  </si>
-  <si>
-    <t>Во вторых, к попоулярным старым фильмам, в последнее время выпускают ремейки, поэтому есть смысл учитывать и дату выхода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вл первых,  в силу локализации разные фильмы могут получить одинаковые названия, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">поэтому имеет смысл разделять фильмы по стране производства. </t>
-  </si>
-  <si>
     <t>PROJECT (1 and 3)</t>
   </si>
   <si>
@@ -639,6 +624,24 @@
   </si>
   <si>
     <t>SEASON, HOTEL</t>
+  </si>
+  <si>
+    <t>Получится пустое множество</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>ID фильма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеющихся данных в таблице недостаточно для ключа, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">который будет гарантированно давать только один фильм, </t>
+  </si>
+  <si>
+    <t>потому решено добавить идентификатор "ID фильма"</t>
   </si>
 </sst>
 </file>
@@ -778,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -791,7 +794,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -816,7 +818,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,6 +836,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -902,13 +907,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>175261</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>510541</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>129355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -940,13 +945,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>157676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -988,8 +993,8 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>56128</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665728</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>34178</xdr:rowOff>
     </xdr:to>
@@ -1022,13 +1027,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>251699</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>38250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1066,13 +1071,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>460569</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>30347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1400,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB344"/>
+  <dimension ref="A2:AB342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H360" sqref="H360"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1418,6 +1423,7 @@
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="12.109375" customWidth="1"/>
     <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
     <col min="16" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1435,7 +1441,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6">
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1458,7 +1464,7 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1481,7 +1487,7 @@
       <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1504,7 +1510,7 @@
       <c r="G7" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1527,7 +1533,7 @@
       <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1550,7 +1556,7 @@
       <c r="G9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1573,7 +1579,7 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1596,7 +1602,7 @@
       <c r="G11" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1619,7 +1625,7 @@
       <c r="G12" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1642,7 +1648,7 @@
       <c r="G13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1665,7 +1671,7 @@
       <c r="G14" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1688,7 +1694,7 @@
       <c r="G15" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1711,7 +1717,7 @@
       <c r="G16" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1736,10 +1742,10 @@
       <c r="M21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="18">
         <v>2</v>
       </c>
       <c r="R21" s="6">
@@ -1748,10 +1754,10 @@
       <c r="S21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="18">
         <v>89</v>
       </c>
       <c r="X21" s="6">
@@ -1768,10 +1774,10 @@
       <c r="M22" s="5">
         <v>8</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="18">
         <v>7</v>
       </c>
       <c r="R22" s="6">
@@ -1780,10 +1786,10 @@
       <c r="S22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="U22" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="18">
         <v>78</v>
       </c>
       <c r="X22" s="7" t="s">
@@ -1800,10 +1806,10 @@
       <c r="M23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="18">
         <v>89</v>
       </c>
       <c r="R23" s="6">
@@ -1812,10 +1818,10 @@
       <c r="S23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="U23" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="18">
         <v>5</v>
       </c>
       <c r="X23" s="7">
@@ -1832,10 +1838,10 @@
       <c r="S24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="U24" s="19" t="s">
+      <c r="U24" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V24" s="18">
         <v>890</v>
       </c>
     </row>
@@ -1939,177 +1945,177 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="L45" s="20" t="s">
+      <c r="L45" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="O45" s="20" t="s">
+      <c r="O45" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
         <v>15</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="18">
         <v>15</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="21">
         <v>15</v>
       </c>
-      <c r="L46" s="22" t="s">
+      <c r="L46" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="21">
         <v>34</v>
       </c>
-      <c r="O46" s="22" t="s">
+      <c r="O46" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
         <v>3</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="18">
         <v>3</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="21">
         <v>3</v>
       </c>
-      <c r="L47" s="22" t="s">
+      <c r="L47" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="21">
         <v>8</v>
       </c>
-      <c r="O47" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="P47" s="22">
+      <c r="O47" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="18">
         <v>34</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="18">
         <v>34</v>
       </c>
-      <c r="L48" s="22" t="s">
+      <c r="L48" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
         <v>8</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="19">
-        <v>2</v>
-      </c>
-      <c r="F50" s="19" t="s">
+      <c r="C50" s="18">
+        <v>2</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="18">
         <v>7</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="18">
         <v>15</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="26">
+      <c r="F52" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="25">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="19">
+      <c r="B53" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="18">
         <v>14</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="18">
         <v>3</v>
       </c>
     </row>
@@ -2174,225 +2180,225 @@
       </c>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="29"/>
-      <c r="F78" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="I78" s="20" t="s">
-        <v>194</v>
+      <c r="B78" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="28"/>
+      <c r="F78" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="30">
-        <v>1</v>
-      </c>
-      <c r="D79" s="29"/>
-      <c r="F79" s="22" t="s">
+      <c r="C79" s="29">
+        <v>1</v>
+      </c>
+      <c r="D79" s="28"/>
+      <c r="F79" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I79" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="30">
-        <v>1</v>
-      </c>
-      <c r="D80" s="29"/>
-      <c r="F80" s="22" t="s">
+      <c r="C80" s="29">
+        <v>1</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="F80" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="30">
-        <v>1</v>
-      </c>
-      <c r="D81" s="29"/>
-      <c r="F81" s="22" t="s">
+      <c r="C81" s="29">
+        <v>1</v>
+      </c>
+      <c r="D81" s="28"/>
+      <c r="F81" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="30">
-        <v>2</v>
-      </c>
-      <c r="D82" s="29"/>
+      <c r="C82" s="29">
+        <v>2</v>
+      </c>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="30">
-        <v>2</v>
-      </c>
-      <c r="D83" s="29"/>
+      <c r="C83" s="29">
+        <v>2</v>
+      </c>
+      <c r="D83" s="28"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="30">
-        <v>2</v>
-      </c>
-      <c r="D84" s="29"/>
+      <c r="C84" s="29">
+        <v>2</v>
+      </c>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="29">
         <v>3</v>
       </c>
-      <c r="D85" s="29"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="29">
         <v>3</v>
       </c>
-      <c r="D86" s="29"/>
+      <c r="D86" s="28"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="29">
         <v>3</v>
       </c>
-      <c r="D87" s="29"/>
+      <c r="D87" s="28"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="D88" s="13"/>
+      <c r="D88" s="12"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
@@ -2423,7 +2429,7 @@
       <c r="G92" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="16">
+      <c r="H92" s="15">
         <v>45544</v>
       </c>
       <c r="I92" s="5" t="s">
@@ -2440,7 +2446,7 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="H93" s="16">
+      <c r="H93" s="15">
         <v>45534</v>
       </c>
       <c r="I93" s="5" t="s">
@@ -2462,43 +2468,43 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C96" s="20"/>
+      <c r="C96" s="19"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="B97" s="25">
+      <c r="B97" s="24">
         <v>45544</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="21">
         <v>5</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="21" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="B98" s="25">
+      <c r="B98" s="24">
         <v>45534</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="21">
         <v>5</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="21" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
@@ -2562,7 +2568,7 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="B105" s="42"/>
+      <c r="B105" s="40"/>
       <c r="H105" s="5">
         <v>14</v>
       </c>
@@ -2585,62 +2591,83 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C108" s="20"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="B109" s="30">
-        <v>12</v>
-      </c>
-      <c r="C109" s="29"/>
+      <c r="B109" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="B110" s="30">
-        <v>56</v>
-      </c>
-      <c r="C110" s="29"/>
+      <c r="B110"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="B111" s="30">
-        <v>5</v>
-      </c>
-      <c r="C111" s="29"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
+      <c r="A111">
         <v>7</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="B114" s="2" t="s">
+    <row r="112" spans="1:11">
+      <c r="B112" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="134" spans="1:17">
+      <c r="A134">
+        <v>8</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="136" spans="1:17">
-      <c r="A136">
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="5">
+        <v>1</v>
+      </c>
+      <c r="J136" s="5">
+        <v>7</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M136" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="I137" s="5">
+        <v>2</v>
+      </c>
+      <c r="J137" s="5">
         <v>8</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>29</v>
+      <c r="L137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M137" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:17">
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
       <c r="I138" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M138" s="5">
         <v>2</v>
@@ -2648,79 +2675,91 @@
     </row>
     <row r="139" spans="1:17">
       <c r="I139" s="5">
-        <v>2</v>
-      </c>
-      <c r="J139" s="5">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M139" s="5">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P139" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q139" s="19"/>
     </row>
     <row r="140" spans="1:17">
-      <c r="I140" s="5">
+      <c r="P140" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q140" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="I141" s="5">
+        <v>67</v>
+      </c>
+      <c r="J141" s="5">
+        <v>67</v>
+      </c>
+      <c r="L141" s="5">
+        <v>1</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P141" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q141" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="I142" s="5">
+        <v>2</v>
+      </c>
+      <c r="J142" s="5">
+        <v>7</v>
+      </c>
+      <c r="L142" s="5">
+        <v>2</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P142" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q142" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="I143" s="5">
+        <v>87</v>
+      </c>
+      <c r="J143" s="5">
+        <v>65</v>
+      </c>
+      <c r="L143" s="5">
         <v>3</v>
       </c>
-      <c r="J140" s="5">
-        <v>9</v>
-      </c>
-      <c r="L140" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M140" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
-      <c r="I141" s="5">
-        <v>4</v>
-      </c>
-      <c r="J141" s="5" t="s">
+      <c r="M143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P143" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L141" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M141" s="5">
-        <v>4</v>
-      </c>
-      <c r="P141" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q141" s="20"/>
-    </row>
-    <row r="142" spans="1:17">
-      <c r="P142" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q142" s="20" t="s">
+      <c r="Q143" s="19" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
-      <c r="I143" s="5">
-        <v>67</v>
-      </c>
-      <c r="J143" s="5">
-        <v>67</v>
-      </c>
-      <c r="L143" s="5">
-        <v>1</v>
-      </c>
-      <c r="M143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P143" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q143" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -2731,1207 +2770,1286 @@
         <v>7</v>
       </c>
       <c r="L144" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M144" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="G146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="6">
+        <v>9</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="16"/>
+      <c r="L146" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="I147" s="6">
+        <v>8</v>
+      </c>
+      <c r="J147" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P144" s="20" t="s">
+      <c r="K147" s="16"/>
+      <c r="L147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M147" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="I148" s="6">
+        <v>45</v>
+      </c>
+      <c r="J148" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q144" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
-      <c r="I145" s="5">
-        <v>87</v>
-      </c>
-      <c r="J145" s="5">
-        <v>65</v>
-      </c>
-      <c r="L145" s="5">
+      <c r="K148" s="16"/>
+      <c r="L148" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M148" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="I149" s="6">
+        <v>4</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K149" s="16"/>
+      <c r="L149" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M149" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="G151" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" s="5">
+        <v>1</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L151" s="5">
+        <v>1</v>
+      </c>
+      <c r="M151" s="5">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
+      <c r="I152" s="5">
+        <v>2</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L152" s="5">
+        <v>2</v>
+      </c>
+      <c r="M152" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
+      <c r="I153" s="5">
+        <v>78</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L153" s="5">
         <v>3</v>
       </c>
-      <c r="M145" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P145" s="20" t="s">
+      <c r="M153" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
+      <c r="I154" s="5">
+        <v>4</v>
+      </c>
+      <c r="J154" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q145" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
-      <c r="I146" s="5">
-        <v>2</v>
-      </c>
-      <c r="J146" s="5">
-        <v>7</v>
-      </c>
-      <c r="L146" s="5">
+      <c r="L154" s="5">
         <v>4</v>
       </c>
-      <c r="M146" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
-      <c r="I148" s="6">
+      <c r="M154" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
+      <c r="A156">
         <v>9</v>
       </c>
-      <c r="J148" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="17"/>
-      <c r="L148" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M148" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
-      <c r="I149" s="6">
-        <v>8</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K149" s="17"/>
-      <c r="L149" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M149" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
-      <c r="I150" s="6">
-        <v>45</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K150" s="17"/>
-      <c r="L150" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M150" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="I151" s="6">
-        <v>4</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K151" s="17"/>
-      <c r="L151" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M151" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
-      <c r="G153" t="s">
-        <v>34</v>
-      </c>
-      <c r="I153" s="5">
-        <v>1</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L153" s="5">
-        <v>1</v>
-      </c>
-      <c r="M153" s="5">
-        <v>9876</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="I154" s="5">
-        <v>2</v>
-      </c>
-      <c r="J154" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L154" s="5">
-        <v>2</v>
-      </c>
-      <c r="M154" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="I155" s="5">
-        <v>78</v>
-      </c>
-      <c r="J155" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L155" s="5">
-        <v>3</v>
-      </c>
-      <c r="M155" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="I156" s="5">
-        <v>4</v>
-      </c>
-      <c r="J156" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L156" s="5">
-        <v>4</v>
-      </c>
-      <c r="M156" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="A158">
-        <v>9</v>
-      </c>
-      <c r="B158" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
-      <c r="B159" s="2" t="s">
+    <row r="157" spans="1:27">
+      <c r="B157" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
-      <c r="I160" s="9" t="s">
+    <row r="158" spans="1:27">
+      <c r="I158" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J160" s="9" t="s">
+      <c r="J158" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K160" s="9" t="s">
+      <c r="K158" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L160" s="9" t="s">
+      <c r="L158" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M160" s="9" t="s">
+      <c r="M158" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P160" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="N158" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="P158" s="38"/>
+      <c r="Q158" s="43"/>
+      <c r="R158" s="43"/>
+      <c r="S158" s="43"/>
+      <c r="T158" s="43"/>
+      <c r="U158" s="43"/>
+      <c r="V158" s="43"/>
+      <c r="W158" s="43"/>
+      <c r="X158" s="43"/>
+      <c r="Y158" s="43"/>
+      <c r="Z158" s="43"/>
+      <c r="AA158" s="43"/>
+    </row>
+    <row r="159" spans="1:27">
+      <c r="I159" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K159" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M159" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N159" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="P159" s="38"/>
+      <c r="Q159" s="43"/>
+      <c r="R159" s="43"/>
+      <c r="S159" s="43"/>
+      <c r="T159" s="43"/>
+      <c r="U159" s="43"/>
+      <c r="V159" s="43"/>
+      <c r="W159" s="43"/>
+      <c r="X159" s="43"/>
+      <c r="Y159" s="43"/>
+      <c r="Z159" s="43"/>
+      <c r="AA159" s="43"/>
+    </row>
+    <row r="160" spans="1:27">
+      <c r="I160" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K160" s="5">
+        <v>1</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M160" s="44">
+        <v>36892</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0</v>
+      </c>
+      <c r="P160" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q160" s="32"/>
+      <c r="R160" s="32"/>
+      <c r="S160" s="32"/>
+      <c r="T160" s="32"/>
+      <c r="U160" s="42"/>
+      <c r="V160" s="42"/>
+      <c r="W160" s="42"/>
+      <c r="X160" s="42"/>
+      <c r="Y160" s="42"/>
+      <c r="Z160" s="42"/>
+      <c r="AA160" s="42"/>
     </row>
     <row r="161" spans="1:27">
-      <c r="I161" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K161" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L161" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M161" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P161" s="33" t="s">
-        <v>186</v>
-      </c>
+      <c r="I161" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K161" s="5">
+        <v>2</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M161" s="44">
+        <v>39815</v>
+      </c>
+      <c r="N161" s="5">
+        <v>1</v>
+      </c>
+      <c r="P161" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q161" s="32"/>
+      <c r="R161" s="32"/>
+      <c r="S161" s="32"/>
+      <c r="T161" s="32"/>
+      <c r="U161" s="42"/>
+      <c r="V161" s="42"/>
+      <c r="W161" s="42"/>
+      <c r="X161" s="42"/>
+      <c r="Y161" s="42"/>
+      <c r="Z161" s="42"/>
+      <c r="AA161" s="42"/>
     </row>
     <row r="162" spans="1:27">
       <c r="I162" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K162" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L162" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="M162" s="10">
-        <v>36892</v>
-      </c>
-      <c r="P162" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q162" s="34"/>
-      <c r="R162" s="34"/>
-      <c r="S162" s="34"/>
-      <c r="T162" s="34"/>
-      <c r="U162" s="34"/>
-      <c r="V162" s="34"/>
-      <c r="W162" s="34"/>
-      <c r="X162" s="34"/>
-      <c r="Y162" s="34"/>
-      <c r="Z162" s="34"/>
-      <c r="AA162" s="34"/>
+      <c r="M162" s="44">
+        <v>43833</v>
+      </c>
+      <c r="N162" s="5">
+        <v>2</v>
+      </c>
+      <c r="P162" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q162" s="32"/>
+      <c r="R162" s="32"/>
+      <c r="S162" s="32"/>
+      <c r="T162" s="32"/>
+      <c r="U162" s="42"/>
+      <c r="V162" s="42"/>
+      <c r="W162" s="42"/>
+      <c r="X162" s="42"/>
+      <c r="Y162" s="42"/>
+      <c r="Z162" s="42"/>
+      <c r="AA162" s="42"/>
     </row>
     <row r="163" spans="1:27">
       <c r="I163" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K163" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M163" s="10">
-        <v>39815</v>
-      </c>
-      <c r="P163" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q163" s="34"/>
-      <c r="R163" s="34"/>
-      <c r="S163" s="34"/>
-      <c r="T163" s="34"/>
-      <c r="U163" s="34"/>
-      <c r="V163" s="34"/>
-      <c r="W163" s="34"/>
-      <c r="X163" s="34"/>
-      <c r="Y163" s="34"/>
-      <c r="Z163" s="34"/>
-      <c r="AA163" s="34"/>
+        <v>136</v>
+      </c>
+      <c r="M163" s="44">
+        <v>36892</v>
+      </c>
+      <c r="N163" s="5">
+        <v>3</v>
+      </c>
+      <c r="P163" s="42"/>
+      <c r="Q163" s="42"/>
+      <c r="R163" s="42"/>
+      <c r="S163" s="42"/>
+      <c r="T163" s="42"/>
+      <c r="U163" s="42"/>
+      <c r="V163" s="42"/>
+      <c r="W163" s="42"/>
+      <c r="X163" s="42"/>
+      <c r="Y163" s="42"/>
+      <c r="Z163" s="42"/>
+      <c r="AA163" s="42"/>
     </row>
     <row r="164" spans="1:27">
       <c r="I164" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K164" s="5">
         <v>3</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="M164" s="10">
-        <v>43833</v>
-      </c>
-      <c r="P164" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q164" s="34"/>
-      <c r="R164" s="34"/>
-      <c r="S164" s="34"/>
-      <c r="T164" s="34"/>
-      <c r="U164" s="34"/>
-      <c r="V164" s="34"/>
-      <c r="W164" s="34"/>
-      <c r="X164" s="34"/>
-      <c r="Y164" s="34"/>
-      <c r="Z164" s="34"/>
-      <c r="AA164" s="34"/>
-    </row>
-    <row r="165" spans="1:27">
-      <c r="I165" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K165" s="5">
-        <v>1</v>
-      </c>
-      <c r="L165" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="M165" s="10">
-        <v>36892</v>
-      </c>
-      <c r="P165" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q165" s="34"/>
-      <c r="R165" s="34"/>
-      <c r="S165" s="34"/>
-      <c r="T165" s="34"/>
-      <c r="U165" s="34"/>
-      <c r="V165" s="34"/>
-      <c r="W165" s="34"/>
-      <c r="X165" s="34"/>
-      <c r="Y165" s="34"/>
-      <c r="Z165" s="34"/>
-      <c r="AA165" s="34"/>
-    </row>
-    <row r="166" spans="1:27">
-      <c r="I166" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J166" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K166" s="5">
-        <v>3</v>
-      </c>
-      <c r="L166" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="M166" s="10">
+      <c r="M164" s="44">
         <v>42374</v>
       </c>
-    </row>
-    <row r="169" spans="1:27">
-      <c r="A169">
+      <c r="N164" s="5">
+        <v>4</v>
+      </c>
+      <c r="P164" s="43"/>
+      <c r="Q164" s="43"/>
+      <c r="R164" s="43"/>
+      <c r="S164" s="43"/>
+      <c r="T164" s="43"/>
+      <c r="U164" s="43"/>
+      <c r="V164" s="43"/>
+      <c r="W164" s="43"/>
+      <c r="X164" s="43"/>
+      <c r="Y164" s="43"/>
+      <c r="Z164" s="43"/>
+      <c r="AA164" s="43"/>
+    </row>
+    <row r="167" spans="1:27">
+      <c r="A167">
         <v>10</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>137</v>
       </c>
     </row>
+    <row r="168" spans="1:27">
+      <c r="B168" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="170" spans="1:27">
-      <c r="B170" s="2" t="s">
-        <v>52</v>
+      <c r="F170" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M170" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N170" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O170" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
+      <c r="H171" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N171" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O171" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:27">
-      <c r="F172" t="s">
-        <v>31</v>
-      </c>
-      <c r="H172" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I172" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J172" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K172" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M172" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N172" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O172" s="11" t="s">
-        <v>35</v>
+      <c r="H172" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J172" s="5">
+        <v>290</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N172" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O172" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:27">
-      <c r="H173" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J173" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K173" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M173" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N173" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O173" s="11" t="s">
-        <v>55</v>
+      <c r="H173" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J173" s="5">
+        <v>302</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M173" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N173" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O173" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:27">
       <c r="H174" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J174" s="5">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K174" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M174" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N174" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O174" s="5" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="175" spans="1:27">
       <c r="H175" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J175" s="5">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K175" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="M175" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="N175" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O175" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="176" spans="1:27">
       <c r="H176" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J176" s="5">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K176" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="6:15">
-      <c r="H177" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I177" s="5" t="s">
+    <row r="178" spans="6:15">
+      <c r="F178" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K178" s="11"/>
+      <c r="M178" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N178" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O178" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="6:15">
+      <c r="H179" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K179" s="11"/>
+      <c r="M179" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N179" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O179" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="6:15">
+      <c r="H180" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K180" s="12"/>
+      <c r="M180" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N180" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O180" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="6:15">
+      <c r="H181" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K181" s="12"/>
+      <c r="M181" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N181" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O181" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="J177" s="5">
-        <v>296</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="178" spans="6:15">
-      <c r="H178" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I178" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J178" s="5">
-        <v>298</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="180" spans="6:15">
-      <c r="F180" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I180" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J180" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K180" s="12"/>
-      <c r="M180" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N180" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O180" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="181" spans="6:15">
-      <c r="H181" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I181" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J181" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K181" s="12"/>
-      <c r="M181" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N181" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O181" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="182" spans="6:15">
       <c r="H182" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J182" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K182" s="13"/>
-      <c r="M182" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N182" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O182" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="K182" s="12"/>
     </row>
     <row r="183" spans="6:15">
       <c r="H183" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J183" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K183" s="13"/>
-      <c r="M183" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="N183" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O183" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="K183" s="12"/>
     </row>
     <row r="184" spans="6:15">
       <c r="H184" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J184" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K184" s="13"/>
-    </row>
-    <row r="185" spans="6:15">
-      <c r="H185" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I185" s="5" t="s">
+      <c r="K184" s="12"/>
+    </row>
+    <row r="186" spans="6:15">
+      <c r="F186" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K186" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M186" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N186" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O186" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="6:15">
+      <c r="H187" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K187" s="9">
+        <v>5</v>
+      </c>
+      <c r="M187" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N187" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O187" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="6:15">
+      <c r="H188" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J188" s="5">
+        <v>290</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N188" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O188" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="189" spans="6:15">
+      <c r="H189" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J189" s="5">
+        <v>302</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M189" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N189" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O189" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="J185" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K185" s="13"/>
-    </row>
-    <row r="186" spans="6:15">
-      <c r="H186" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I186" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J186" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="K186" s="13"/>
-    </row>
-    <row r="188" spans="6:15">
-      <c r="F188" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I188" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J188" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K188" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M188" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N188" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O188" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189" spans="6:15">
-      <c r="H189" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I189" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J189" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K189" s="9">
-        <v>5</v>
-      </c>
-      <c r="M189" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N189" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O189" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="190" spans="6:15">
       <c r="H190" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J190" s="5">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M190" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N190" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O190" s="5" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="191" spans="6:15">
       <c r="H191" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J191" s="5">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="M191" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="N191" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O191" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="192" spans="6:15">
       <c r="H192" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J192" s="5">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K192" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="194" spans="6:15">
+      <c r="F194" t="s">
+        <v>34</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M194" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N194" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O194" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="6:15">
+      <c r="H195" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M195" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N195" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O195" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="6:15">
+      <c r="H196" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J196" s="5">
+        <v>290</v>
+      </c>
+      <c r="K196" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="193" spans="6:15">
-      <c r="H193" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I193" s="5" t="s">
+      <c r="M196" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O196" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="197" spans="6:15">
+      <c r="H197" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J197" s="5">
+        <v>302</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M197" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N197" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O197" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="J193" s="5">
-        <v>296</v>
-      </c>
-      <c r="K193" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="194" spans="6:15">
-      <c r="H194" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I194" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J194" s="5">
-        <v>298</v>
-      </c>
-      <c r="K194" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="196" spans="6:15">
-      <c r="F196" t="s">
-        <v>34</v>
-      </c>
-      <c r="H196" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I196" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J196" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K196" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M196" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N196" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O196" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="197" spans="6:15">
-      <c r="H197" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I197" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J197" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K197" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M197" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N197" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O197" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="198" spans="6:15">
       <c r="H198" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J198" s="5">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M198" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N198" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O198" s="5" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="199" spans="6:15">
       <c r="H199" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J199" s="5">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K199" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M199" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="N199" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O199" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="200" spans="6:15">
       <c r="H200" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J200" s="5">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K200" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" spans="6:15">
+      <c r="F202" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K202" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M202" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N202" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O202" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="6:15">
+      <c r="H203" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M203" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N203" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O203" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="6:15">
+      <c r="H204" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J204" s="5">
+        <v>290</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M204" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="201" spans="6:15">
-      <c r="H201" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I201" s="5" t="s">
+      <c r="N204" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O204" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="6:15">
+      <c r="H205" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J205" s="5">
+        <v>302</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M205" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N205" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O205" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="J201" s="5">
-        <v>296</v>
-      </c>
-      <c r="K201" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="202" spans="6:15">
-      <c r="H202" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I202" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J202" s="5">
-        <v>298</v>
-      </c>
-      <c r="K202" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="204" spans="6:15">
-      <c r="F204" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I204" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J204" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K204" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M204" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N204" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O204" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="205" spans="6:15">
-      <c r="H205" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I205" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J205" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K205" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M205" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N205" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O205" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="206" spans="6:15">
       <c r="H206" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J206" s="5">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K206" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="M206" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N206" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O206" s="5" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="207" spans="6:15">
       <c r="H207" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J207" s="5">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K207" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M207" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="N207" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O207" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="208" spans="6:15">
       <c r="H208" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J208" s="5">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K208" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
-      <c r="H209" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J209" s="5">
-        <v>296</v>
-      </c>
-      <c r="K209" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="210" spans="1:11">
-      <c r="H210" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I210" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J210" s="5">
-        <v>298</v>
-      </c>
-      <c r="K210" s="5" t="s">
-        <v>142</v>
+      <c r="F210" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="F211" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G211" s="41" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="F212" s="35" t="s">
+      <c r="F212" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G212" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="F213" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="F214" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="F215" s="34"/>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216">
         <v>11</v>
       </c>
-      <c r="G212" s="43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="F213" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G213" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
-      <c r="F214" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G214" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
-      <c r="F215" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G215" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11">
-      <c r="F216" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="43" t="s">
-        <v>166</v>
+      <c r="B216" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="F217" s="36"/>
-    </row>
-    <row r="218" spans="1:11">
-      <c r="A218">
-        <v>11</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>144</v>
+      <c r="B217" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="219" spans="1:11">
-      <c r="B219" s="2" t="s">
-        <v>58</v>
+      <c r="H219" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J219" s="19"/>
+      <c r="K219" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="H220" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J220" s="19"/>
+      <c r="K220" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="221" spans="1:11">
-      <c r="H221" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J221" s="20"/>
-      <c r="K221" s="20" t="s">
-        <v>145</v>
+      <c r="F221" t="s">
+        <v>59</v>
+      </c>
+      <c r="G221" t="s">
+        <v>21</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J221" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K221" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="H222" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J222" s="20"/>
-      <c r="K222" s="20" t="s">
-        <v>178</v>
+        <v>148</v>
+      </c>
+      <c r="J222" s="19"/>
+      <c r="K222" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="223" spans="1:11">
-      <c r="F223" t="s">
-        <v>59</v>
-      </c>
-      <c r="G223" t="s">
+      <c r="J223" s="19"/>
+      <c r="K223" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20">
+      <c r="A225">
+        <v>12</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
+      <c r="H226" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I226" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J226" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M226" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N226" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="O226" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="R226" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="S226" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T226" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20">
+      <c r="H227" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I227" s="5">
+        <v>15000</v>
+      </c>
+      <c r="J227" s="5">
+        <v>1</v>
+      </c>
+      <c r="M227" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N227" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O227" s="5">
+        <v>2</v>
+      </c>
+      <c r="R227" s="5">
+        <v>1</v>
+      </c>
+      <c r="S227" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="T227" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20">
+      <c r="F228" t="s">
+        <v>22</v>
+      </c>
+      <c r="G228" t="s">
         <v>21</v>
       </c>
-      <c r="H223" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J223" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="K223" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="H224" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J224" s="20"/>
-      <c r="K224" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20">
-      <c r="J225" s="20"/>
-      <c r="K225" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20">
-      <c r="A227">
-        <v>12</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20">
-      <c r="H228" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I228" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J228" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M228" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="N228" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="O228" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="R228" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="S228" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="T228" s="11" t="s">
-        <v>73</v>
+      <c r="H228" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I228" s="5">
+        <v>30000</v>
+      </c>
+      <c r="J228" s="5">
+        <v>1</v>
+      </c>
+      <c r="L228" t="s">
+        <v>65</v>
+      </c>
+      <c r="M228" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N228" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O228" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>71</v>
+      </c>
+      <c r="R228" s="5">
+        <v>2</v>
+      </c>
+      <c r="S228" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="T228" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="229" spans="1:20">
       <c r="H229" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I229" s="5">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="J229" s="5">
         <v>1</v>
       </c>
       <c r="M229" s="5" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="N229" s="5" t="s">
         <v>69</v>
@@ -3939,1698 +4057,1628 @@
       <c r="O229" s="5">
         <v>2</v>
       </c>
-      <c r="R229" s="5">
-        <v>1</v>
-      </c>
-      <c r="S229" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="T229" s="5" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="230" spans="1:20">
-      <c r="F230" t="s">
-        <v>22</v>
-      </c>
-      <c r="G230" t="s">
-        <v>21</v>
-      </c>
       <c r="H230" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I230" s="5">
+        <v>17000</v>
+      </c>
+      <c r="J230" s="5">
+        <v>1</v>
+      </c>
+      <c r="M230" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I230" s="5">
-        <v>30000</v>
-      </c>
-      <c r="J230" s="5">
-        <v>1</v>
-      </c>
-      <c r="L230" t="s">
-        <v>65</v>
-      </c>
-      <c r="M230" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="N230" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O230" s="5">
         <v>1</v>
-      </c>
-      <c r="Q230" t="s">
-        <v>71</v>
-      </c>
-      <c r="R230" s="5">
-        <v>2</v>
-      </c>
-      <c r="S230" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="T230" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="231" spans="1:20">
       <c r="H231" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I231" s="5">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="J231" s="5">
         <v>1</v>
       </c>
       <c r="M231" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N231" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O231" s="5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R231" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="S231" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:20">
       <c r="H232" s="5" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="I232" s="5">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="J232" s="5">
-        <v>1</v>
-      </c>
-      <c r="M232" s="5" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="M232" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="N232" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O232" s="5">
-        <v>1</v>
+      <c r="O232" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>78</v>
+      </c>
+      <c r="R232" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S232" s="14">
+        <v>45627</v>
       </c>
     </row>
     <row r="233" spans="1:20">
       <c r="H233" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I233" s="5">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="J233" s="5">
-        <v>1</v>
-      </c>
-      <c r="M233" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N233" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R233" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O233" s="5">
-        <v>1</v>
-      </c>
-      <c r="R233" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="S233" s="9" t="s">
-        <v>79</v>
+      <c r="S233" s="14">
+        <v>45047</v>
       </c>
     </row>
     <row r="234" spans="1:20">
       <c r="H234" s="5" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="I234" s="5">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="J234" s="5">
         <v>2</v>
-      </c>
-      <c r="M234" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N234" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O234" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>78</v>
-      </c>
-      <c r="R234" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="S234" s="15">
-        <v>45627</v>
       </c>
     </row>
     <row r="235" spans="1:20">
       <c r="H235" s="5" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="I235" s="5">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="J235" s="5">
         <v>2</v>
-      </c>
-      <c r="R235" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="S235" s="15">
-        <v>45047</v>
       </c>
     </row>
     <row r="236" spans="1:20">
       <c r="H236" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I236" s="5">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="J236" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
-      <c r="H237" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I237" s="5">
-        <v>20000</v>
-      </c>
-      <c r="J237" s="5">
-        <v>2</v>
-      </c>
-    </row>
     <row r="238" spans="1:20">
-      <c r="H238" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I238" s="5">
-        <v>40000</v>
-      </c>
-      <c r="J238" s="5">
-        <v>2</v>
+      <c r="B238" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:20">
-      <c r="B240" s="2" t="s">
-        <v>74</v>
+      <c r="C240" t="s">
+        <v>31</v>
+      </c>
+      <c r="D240" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="241" spans="2:28">
+      <c r="C241" t="s">
+        <v>32</v>
+      </c>
+      <c r="D241" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="2:28">
       <c r="C242" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D242" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="2:28">
       <c r="C243" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="245" spans="2:28">
+      <c r="B245" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D245" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E245" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F245" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G245" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I245" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D243" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="244" spans="2:28">
-      <c r="C244" t="s">
+      <c r="J245" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="K245" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="L245" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="M245" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N245" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P245" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D244" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="245" spans="2:28">
-      <c r="C245" t="s">
+      <c r="Q245" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="R245" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="S245" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="T245" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="U245" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="W245" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D245" t="s">
-        <v>80</v>
+      <c r="X245" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y245" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z245" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA245" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="2:28">
+      <c r="C246" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D246" s="21">
+        <v>15000</v>
+      </c>
+      <c r="E246" s="21">
+        <v>1</v>
+      </c>
+      <c r="F246" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G246" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J246" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K246" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L246" s="21">
+        <v>2</v>
+      </c>
+      <c r="M246" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="N246" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q246" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R246" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="S246" s="21">
+        <v>2</v>
+      </c>
+      <c r="T246" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U246" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="X246" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y246" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z246" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA246" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="2:28">
-      <c r="B247" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C247" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D247" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E247" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="F247" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G247" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I247" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J247" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="K247" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="L247" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="M247" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="N247" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P247" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q247" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="R247" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="S247" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="T247" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="U247" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="W247" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="X247" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y247" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z247" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA247" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB247" s="31" t="s">
+      <c r="C247" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D247" s="21">
+        <v>30000</v>
+      </c>
+      <c r="E247" s="21">
+        <v>1</v>
+      </c>
+      <c r="F247" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G247" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J247" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K247" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L247" s="21">
+        <v>1</v>
+      </c>
+      <c r="M247" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="N247" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q247" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R247" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="S247" s="21">
+        <v>1</v>
+      </c>
+      <c r="T247" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="U247" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="X247" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y247" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z247" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA247" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB247" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="248" spans="2:28">
-      <c r="C248" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D248" s="22">
-        <v>15000</v>
-      </c>
-      <c r="E248" s="22">
-        <v>1</v>
-      </c>
-      <c r="F248" s="22" t="s">
+      <c r="C248" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D248" s="21">
+        <v>60000</v>
+      </c>
+      <c r="E248" s="21">
+        <v>1</v>
+      </c>
+      <c r="F248" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G248" s="22" t="s">
+      <c r="G248" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="J248" s="22" t="s">
+      <c r="J248" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K248" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L248" s="21">
+        <v>2</v>
+      </c>
+      <c r="M248" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="N248" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q248" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R248" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="S248" s="21">
+        <v>2</v>
+      </c>
+      <c r="T248" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U248" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="X248" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y248" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z248" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA248" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB248" s="37">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="249" spans="2:28">
+      <c r="C249" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" s="21">
+        <v>17000</v>
+      </c>
+      <c r="E249" s="21">
+        <v>1</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G249" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J249" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K249" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L249" s="21">
+        <v>1</v>
+      </c>
+      <c r="M249" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="N249" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q249" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R249" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S249" s="21">
+        <v>1</v>
+      </c>
+      <c r="T249" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="U249" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="X249" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y249" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z249" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA249" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB249" s="37">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="250" spans="2:28">
+      <c r="C250" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D250" s="21">
+        <v>23000</v>
+      </c>
+      <c r="E250" s="21">
+        <v>1</v>
+      </c>
+      <c r="F250" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G250" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J250" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K250" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L250" s="21">
+        <v>1</v>
+      </c>
+      <c r="M250" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="N250" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q250" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R250" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S250" s="21">
+        <v>1</v>
+      </c>
+      <c r="T250" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="U250" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB250" s="37">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="251" spans="2:28">
+      <c r="C251" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D251" s="21">
+        <v>25000</v>
+      </c>
+      <c r="E251" s="21">
+        <v>2</v>
+      </c>
+      <c r="F251" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G251" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J251" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K251" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L251" s="21">
+        <v>2</v>
+      </c>
+      <c r="M251" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="N251" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q251" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="R251" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S251" s="21">
+        <v>2</v>
+      </c>
+      <c r="T251" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U251" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB251" s="37">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="252" spans="2:28">
+      <c r="C252" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D252" s="21">
+        <v>32000</v>
+      </c>
+      <c r="E252" s="21">
+        <v>2</v>
+      </c>
+      <c r="F252" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G252" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q252" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="K248" s="22" t="s">
+      <c r="R252" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L248" s="22">
-        <v>2</v>
-      </c>
-      <c r="M248" s="22" t="s">
+      <c r="S252" s="21">
+        <v>1</v>
+      </c>
+      <c r="T252" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="U252" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="253" spans="2:28">
+      <c r="C253" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D253" s="21">
+        <v>16000</v>
+      </c>
+      <c r="E253" s="21">
+        <v>2</v>
+      </c>
+      <c r="F253" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="N248" s="22" t="s">
+      <c r="G253" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="Q248" s="22" t="s">
+      <c r="Q253" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R253" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="S253" s="21">
+        <v>2</v>
+      </c>
+      <c r="T253" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U253" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="254" spans="2:28">
+      <c r="C254" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="R248" s="22" t="s">
+      <c r="D254" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E254" s="21">
+        <v>2</v>
+      </c>
+      <c r="F254" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G254" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q254" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R254" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="S248" s="22">
-        <v>2</v>
-      </c>
-      <c r="T248" s="22" t="s">
+      <c r="S254" s="21">
+        <v>1</v>
+      </c>
+      <c r="T254" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="U254" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="255" spans="2:28">
+      <c r="C255" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" s="21">
+        <v>40000</v>
+      </c>
+      <c r="E255" s="21">
+        <v>2</v>
+      </c>
+      <c r="F255" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="U248" s="22" t="s">
+      <c r="G255" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="X248" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y248" s="22" t="s">
+      <c r="Q255" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R255" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S255" s="21">
+        <v>2</v>
+      </c>
+      <c r="T255" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U255" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="256" spans="2:28">
+      <c r="Q256" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R256" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S256" s="21">
+        <v>2</v>
+      </c>
+      <c r="T256" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U256" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21">
+      <c r="A257">
+        <v>13</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q257" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="R257" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S257" s="21">
+        <v>1</v>
+      </c>
+      <c r="T257" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="Z248" s="22" t="s">
+      <c r="U257" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AA248" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB248" s="39">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="249" spans="2:28">
-      <c r="C249" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D249" s="22">
-        <v>30000</v>
-      </c>
-      <c r="E249" s="22">
-        <v>1</v>
-      </c>
-      <c r="F249" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G249" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J249" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K249" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L249" s="22">
-        <v>1</v>
-      </c>
-      <c r="M249" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="N249" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q249" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R249" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S249" s="22">
-        <v>1</v>
-      </c>
-      <c r="T249" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="U249" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="X249" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y249" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z249" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA249" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB249" s="39">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="250" spans="2:28">
-      <c r="C250" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D250" s="22">
-        <v>60000</v>
-      </c>
-      <c r="E250" s="22">
-        <v>1</v>
-      </c>
-      <c r="F250" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G250" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J250" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K250" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L250" s="22">
-        <v>2</v>
-      </c>
-      <c r="M250" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="N250" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q250" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="R250" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S250" s="22">
-        <v>2</v>
-      </c>
-      <c r="T250" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="U250" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="X250" s="22">
-        <v>2</v>
-      </c>
-      <c r="Y250" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z250" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA250" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB250" s="39">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="251" spans="2:28">
-      <c r="C251" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D251" s="22">
-        <v>17000</v>
-      </c>
-      <c r="E251" s="22">
-        <v>1</v>
-      </c>
-      <c r="F251" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G251" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J251" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="K251" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L251" s="22">
-        <v>1</v>
-      </c>
-      <c r="M251" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="N251" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q251" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="R251" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S251" s="22">
-        <v>1</v>
-      </c>
-      <c r="T251" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="U251" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="X251" s="22">
-        <v>2</v>
-      </c>
-      <c r="Y251" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z251" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA251" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB251" s="39">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="252" spans="2:28">
-      <c r="C252" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D252" s="22">
-        <v>23000</v>
-      </c>
-      <c r="E252" s="22">
-        <v>1</v>
-      </c>
-      <c r="F252" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G252" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J252" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K252" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L252" s="22">
-        <v>1</v>
-      </c>
-      <c r="M252" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="N252" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q252" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R252" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S252" s="22">
-        <v>1</v>
-      </c>
-      <c r="T252" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="U252" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="253" spans="2:28">
-      <c r="C253" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D253" s="22">
-        <v>25000</v>
-      </c>
-      <c r="E253" s="22">
-        <v>2</v>
-      </c>
-      <c r="F253" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G253" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="J253" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K253" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L253" s="22">
-        <v>2</v>
-      </c>
-      <c r="M253" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="N253" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q253" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="R253" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S253" s="22">
-        <v>2</v>
-      </c>
-      <c r="T253" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="U253" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="254" spans="2:28">
-      <c r="C254" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D254" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E254" s="22">
-        <v>2</v>
-      </c>
-      <c r="F254" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G254" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q254" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="R254" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S254" s="22">
-        <v>1</v>
-      </c>
-      <c r="T254" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="U254" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="255" spans="2:28">
-      <c r="C255" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D255" s="22">
-        <v>16000</v>
-      </c>
-      <c r="E255" s="22">
-        <v>2</v>
-      </c>
-      <c r="F255" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G255" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q255" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R255" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S255" s="22">
-        <v>2</v>
-      </c>
-      <c r="T255" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="U255" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="256" spans="2:28">
-      <c r="C256" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D256" s="22">
-        <v>20000</v>
-      </c>
-      <c r="E256" s="22">
-        <v>2</v>
-      </c>
-      <c r="F256" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G256" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q256" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="R256" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S256" s="22">
-        <v>1</v>
-      </c>
-      <c r="T256" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="U256" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="257" spans="1:21">
-      <c r="C257" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D257" s="22">
-        <v>40000</v>
-      </c>
-      <c r="E257" s="22">
-        <v>2</v>
-      </c>
-      <c r="F257" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G257" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q257" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="R257" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S257" s="22">
-        <v>2</v>
-      </c>
-      <c r="T257" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="U257" s="22" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="258" spans="1:21">
-      <c r="Q258" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R258" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S258" s="22">
-        <v>2</v>
-      </c>
-      <c r="T258" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="U258" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="259" spans="1:21">
-      <c r="A259">
-        <v>13</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q259" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="R259" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S259" s="22">
-        <v>1</v>
-      </c>
-      <c r="T259" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="U259" s="22" t="s">
-        <v>155</v>
+      <c r="B258" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:21">
       <c r="B260" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:21">
-      <c r="B262" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="264" spans="1:21">
-      <c r="E264" t="s">
+      <c r="E262" t="s">
         <v>31</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F262" t="s">
         <v>159</v>
       </c>
     </row>
+    <row r="263" spans="1:21">
+      <c r="E263" t="s">
+        <v>32</v>
+      </c>
+      <c r="F263" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="265" spans="1:21">
-      <c r="E265" t="s">
+      <c r="B265" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C265" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D265" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E265" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F265" s="34"/>
+      <c r="G265" s="34"/>
+      <c r="H265" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F265" t="s">
-        <v>84</v>
+      <c r="I265" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="J265" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="K265" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21">
+      <c r="B266" s="36"/>
+      <c r="C266" s="33">
+        <v>0</v>
+      </c>
+      <c r="D266" s="33">
+        <v>0</v>
+      </c>
+      <c r="E266" s="33">
+        <v>0</v>
+      </c>
+      <c r="F266" s="34"/>
+      <c r="G266" s="34"/>
+      <c r="H266" s="34"/>
+      <c r="I266" s="33">
+        <v>0</v>
+      </c>
+      <c r="J266" s="33">
+        <v>0</v>
+      </c>
+      <c r="K266" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:21">
-      <c r="B267" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C267" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D267" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E267" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F267" s="36"/>
-      <c r="G267" s="36"/>
-      <c r="H267" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I267" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="J267" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="K267" s="35" t="s">
-        <v>170</v>
+      <c r="B267" s="36"/>
+      <c r="C267" s="33">
+        <v>0</v>
+      </c>
+      <c r="D267" s="33">
+        <v>1</v>
+      </c>
+      <c r="E267" s="33">
+        <v>0</v>
+      </c>
+      <c r="F267" s="34"/>
+      <c r="G267" s="34"/>
+      <c r="H267" s="34"/>
+      <c r="I267" s="33">
+        <v>0</v>
+      </c>
+      <c r="J267" s="33">
+        <v>1</v>
+      </c>
+      <c r="K267" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:21">
-      <c r="B268" s="38"/>
-      <c r="C268" s="35">
+      <c r="B268" s="36"/>
+      <c r="C268" s="33">
+        <v>1</v>
+      </c>
+      <c r="D268" s="33">
         <v>0</v>
       </c>
-      <c r="D268" s="35">
+      <c r="E268" s="33">
+        <v>1</v>
+      </c>
+      <c r="F268" s="34"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="34"/>
+      <c r="I268" s="33">
+        <v>1</v>
+      </c>
+      <c r="J268" s="33">
         <v>0</v>
       </c>
-      <c r="E268" s="35">
+      <c r="K268" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21">
+      <c r="B269" s="36"/>
+      <c r="C269" s="33">
+        <v>1</v>
+      </c>
+      <c r="D269" s="33">
+        <v>1</v>
+      </c>
+      <c r="E269" s="33">
+        <v>1</v>
+      </c>
+      <c r="F269" s="34"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="34"/>
+      <c r="I269" s="33">
+        <v>1</v>
+      </c>
+      <c r="J269" s="33">
+        <v>1</v>
+      </c>
+      <c r="K269" s="33">
         <v>0</v>
       </c>
-      <c r="F268" s="36"/>
-      <c r="G268" s="36"/>
-      <c r="H268" s="36"/>
-      <c r="I268" s="35">
-        <v>0</v>
-      </c>
-      <c r="J268" s="35">
-        <v>0</v>
-      </c>
-      <c r="K268" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:21">
-      <c r="B269" s="38"/>
-      <c r="C269" s="35">
-        <v>0</v>
-      </c>
-      <c r="D269" s="35">
-        <v>1</v>
-      </c>
-      <c r="E269" s="35">
-        <v>0</v>
-      </c>
-      <c r="F269" s="36"/>
-      <c r="G269" s="36"/>
-      <c r="H269" s="36"/>
-      <c r="I269" s="35">
-        <v>0</v>
-      </c>
-      <c r="J269" s="35">
-        <v>1</v>
-      </c>
-      <c r="K269" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:21">
-      <c r="B270" s="38"/>
-      <c r="C270" s="35">
-        <v>1</v>
-      </c>
-      <c r="D270" s="35">
-        <v>0</v>
-      </c>
-      <c r="E270" s="35">
-        <v>1</v>
-      </c>
-      <c r="F270" s="36"/>
-      <c r="G270" s="36"/>
-      <c r="H270" s="36"/>
-      <c r="I270" s="35">
-        <v>1</v>
-      </c>
-      <c r="J270" s="35">
-        <v>0</v>
-      </c>
-      <c r="K270" s="35">
-        <v>1</v>
-      </c>
     </row>
     <row r="271" spans="1:21">
-      <c r="B271" s="38"/>
-      <c r="C271" s="35">
-        <v>1</v>
-      </c>
-      <c r="D271" s="35">
-        <v>1</v>
-      </c>
-      <c r="E271" s="35">
-        <v>1</v>
-      </c>
-      <c r="F271" s="36"/>
-      <c r="G271" s="36"/>
-      <c r="H271" s="36"/>
-      <c r="I271" s="35">
-        <v>1</v>
-      </c>
-      <c r="J271" s="35">
-        <v>1</v>
-      </c>
-      <c r="K271" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273">
+      <c r="A271">
         <v>14</v>
       </c>
+      <c r="B271" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21">
+      <c r="B272" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
       <c r="B273" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
       <c r="B274" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="B275" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="B276" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="276" spans="2:7">
+      <c r="B276" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C277" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D277" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
       <c r="B278" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="B279" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C279" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D279" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="B280" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C280" s="22" t="s">
+      <c r="C278" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D280" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="B281" s="22" t="s">
+      <c r="D278" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="B279" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C281" s="22" t="s">
+      <c r="C279" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D281" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="B282" s="22" t="s">
+      <c r="D279" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C282" s="22" t="s">
+      <c r="C280" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D282" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="B283" s="22" t="s">
+      <c r="D280" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C283" s="22" t="s">
+      <c r="C281" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D283" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="B284" s="22" t="s">
+      <c r="D281" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="B282" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C284" s="22" t="s">
+      <c r="C282" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D284" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="B285" s="22" t="s">
+      <c r="D282" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C285" s="22" t="s">
+      <c r="C283" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D285" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="B287" s="2" t="s">
+      <c r="D283" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" s="2" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="287" spans="2:7">
+      <c r="B287" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C287" s="19"/>
+      <c r="D287" s="19"/>
+      <c r="E287" s="19"/>
+      <c r="F287" s="19"/>
+      <c r="G287" s="19"/>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C288" s="19"/>
+      <c r="D288" s="19"/>
+      <c r="E288" s="19"/>
+      <c r="F288" s="19"/>
+      <c r="G288" s="19"/>
+    </row>
     <row r="289" spans="1:7">
-      <c r="B289" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C289" s="20"/>
-      <c r="D289" s="20"/>
-      <c r="E289" s="20"/>
-      <c r="F289" s="20"/>
-      <c r="G289" s="20"/>
+      <c r="B289" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C289" s="19"/>
+      <c r="D289" s="19"/>
+      <c r="E289" s="19"/>
+      <c r="F289" s="19"/>
+      <c r="G289" s="19"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="B290" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C290" s="20"/>
-      <c r="D290" s="20"/>
-      <c r="E290" s="20"/>
-      <c r="F290" s="20"/>
-      <c r="G290" s="20"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="B291" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C291" s="20"/>
-      <c r="D291" s="20"/>
-      <c r="E291" s="20"/>
-      <c r="F291" s="20"/>
-      <c r="G291" s="20"/>
+      <c r="B290" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C290" s="19"/>
+      <c r="D290" s="19"/>
+      <c r="E290" s="19"/>
+      <c r="F290" s="19"/>
+      <c r="G290" s="19"/>
     </row>
     <row r="292" spans="1:7">
-      <c r="B292" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C292" s="20"/>
-      <c r="D292" s="20"/>
-      <c r="E292" s="20"/>
-      <c r="F292" s="20"/>
-      <c r="G292" s="20"/>
+      <c r="A292">
+        <v>15</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294">
-        <v>15</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="B294" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C294" s="19"/>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="B295" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C295" s="19"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="B296" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C296" s="20"/>
+      <c r="B296" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="B297" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C297" s="20"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="19"/>
     </row>
     <row r="298" spans="1:7">
-      <c r="B298" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C298" s="20"/>
+      <c r="B298" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C298" s="19"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="B299" s="21"/>
-      <c r="C299" s="20"/>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="B300" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C300" s="20"/>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="B301" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C301" s="20"/>
+      <c r="B299" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C299" s="19"/>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>16</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304">
-        <v>16</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B304" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C304" s="19"/>
+      <c r="D304" s="19"/>
+    </row>
+    <row r="305" spans="1:20">
+      <c r="B305" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
+      <c r="N305" s="11"/>
+      <c r="O305" s="11"/>
     </row>
     <row r="306" spans="1:20">
-      <c r="B306" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C306" s="20"/>
-      <c r="D306" s="20"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="19"/>
+      <c r="N306" s="12"/>
+      <c r="O306" s="12"/>
     </row>
     <row r="307" spans="1:20">
-      <c r="B307" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C307" s="20"/>
-      <c r="D307" s="20"/>
+      <c r="B307" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C307" s="19"/>
+      <c r="D307" s="19"/>
       <c r="N307" s="12"/>
       <c r="O307" s="12"/>
+      <c r="P307" s="12"/>
+      <c r="Q307" s="12"/>
+      <c r="R307" s="38"/>
+      <c r="S307" s="38"/>
+      <c r="T307" s="38"/>
     </row>
     <row r="308" spans="1:20">
-      <c r="B308" s="21"/>
-      <c r="C308" s="20"/>
-      <c r="D308" s="20"/>
-      <c r="N308" s="13"/>
-      <c r="O308" s="13"/>
+      <c r="B308" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C308" s="19"/>
+      <c r="D308" s="19"/>
+      <c r="N308" s="12"/>
+      <c r="O308" s="12"/>
+      <c r="P308" s="12"/>
+      <c r="Q308" s="12"/>
+      <c r="R308" s="12"/>
+      <c r="S308" s="12"/>
+      <c r="T308" s="12"/>
     </row>
     <row r="309" spans="1:20">
-      <c r="B309" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C309" s="20"/>
-      <c r="D309" s="20"/>
-      <c r="N309" s="13"/>
-      <c r="O309" s="13"/>
-      <c r="P309" s="13"/>
-      <c r="Q309" s="13"/>
-      <c r="R309" s="40"/>
-      <c r="S309" s="40"/>
-      <c r="T309" s="40"/>
+      <c r="M309" s="11"/>
+      <c r="N309" s="12"/>
+      <c r="O309" s="12"/>
+      <c r="P309" s="12"/>
+      <c r="Q309" s="12"/>
+      <c r="R309" s="12"/>
+      <c r="S309" s="12"/>
+      <c r="T309" s="12"/>
     </row>
     <row r="310" spans="1:20">
-      <c r="B310" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C310" s="20"/>
-      <c r="D310" s="20"/>
-      <c r="N310" s="13"/>
-      <c r="O310" s="13"/>
-      <c r="P310" s="13"/>
-      <c r="Q310" s="13"/>
-      <c r="R310" s="13"/>
-      <c r="S310" s="13"/>
-      <c r="T310" s="13"/>
+      <c r="A310">
+        <v>17</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M310" s="12"/>
+      <c r="N310" s="12"/>
+      <c r="O310" s="12"/>
+      <c r="P310" s="12"/>
+      <c r="Q310" s="12"/>
+      <c r="R310" s="12"/>
+      <c r="S310" s="12"/>
+      <c r="T310" s="12"/>
     </row>
     <row r="311" spans="1:20">
       <c r="M311" s="12"/>
-      <c r="N311" s="13"/>
-      <c r="O311" s="13"/>
-      <c r="P311" s="13"/>
-      <c r="Q311" s="13"/>
-      <c r="R311" s="13"/>
-      <c r="S311" s="13"/>
-      <c r="T311" s="13"/>
+      <c r="N311" s="12"/>
+      <c r="O311" s="8"/>
+      <c r="P311" s="12"/>
+      <c r="Q311" s="12"/>
+      <c r="R311" s="12"/>
+      <c r="S311" s="12"/>
+      <c r="T311" s="12"/>
     </row>
     <row r="312" spans="1:20">
-      <c r="A312">
-        <v>17</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M312" s="13"/>
-      <c r="N312" s="13"/>
-      <c r="O312" s="13"/>
-      <c r="P312" s="13"/>
-      <c r="Q312" s="13"/>
-      <c r="R312" s="13"/>
-      <c r="S312" s="13"/>
-      <c r="T312" s="13"/>
+      <c r="M312" s="12"/>
+      <c r="N312" s="12"/>
+      <c r="O312" s="12"/>
+      <c r="P312" s="12"/>
+      <c r="Q312" s="12"/>
+      <c r="R312" s="11"/>
+      <c r="S312" s="11"/>
+      <c r="T312" s="12"/>
     </row>
     <row r="313" spans="1:20">
-      <c r="M313" s="13"/>
-      <c r="N313" s="13"/>
-      <c r="O313" s="8"/>
-      <c r="P313" s="13"/>
-      <c r="Q313" s="13"/>
-      <c r="R313" s="13"/>
-      <c r="S313" s="13"/>
-      <c r="T313" s="13"/>
+      <c r="M313" s="12"/>
+      <c r="N313" s="12"/>
+      <c r="O313" s="12"/>
+      <c r="P313" s="12"/>
+      <c r="Q313" s="12"/>
+      <c r="R313" s="12"/>
+      <c r="S313" s="39"/>
+      <c r="T313" s="12"/>
     </row>
     <row r="314" spans="1:20">
-      <c r="M314" s="13"/>
-      <c r="N314" s="13"/>
-      <c r="O314" s="13"/>
-      <c r="P314" s="13"/>
-      <c r="Q314" s="13"/>
+      <c r="M314" s="12"/>
+      <c r="N314" s="12"/>
+      <c r="O314" s="12"/>
+      <c r="P314" s="12"/>
+      <c r="Q314" s="12"/>
       <c r="R314" s="12"/>
-      <c r="S314" s="12"/>
-      <c r="T314" s="13"/>
+      <c r="S314" s="39"/>
+      <c r="T314" s="12"/>
     </row>
     <row r="315" spans="1:20">
-      <c r="M315" s="13"/>
-      <c r="N315" s="13"/>
-      <c r="O315" s="13"/>
-      <c r="P315" s="13"/>
-      <c r="Q315" s="13"/>
-      <c r="R315" s="13"/>
-      <c r="S315" s="41"/>
-      <c r="T315" s="13"/>
+      <c r="M315" s="8"/>
+      <c r="N315" s="12"/>
+      <c r="O315" s="12"/>
+      <c r="P315" s="12"/>
+      <c r="Q315" s="12"/>
+      <c r="R315" s="12"/>
+      <c r="S315" s="12"/>
+      <c r="T315" s="12"/>
     </row>
     <row r="316" spans="1:20">
-      <c r="M316" s="13"/>
-      <c r="N316" s="13"/>
-      <c r="O316" s="13"/>
-      <c r="P316" s="13"/>
-      <c r="Q316" s="13"/>
-      <c r="R316" s="13"/>
-      <c r="S316" s="41"/>
-      <c r="T316" s="13"/>
+      <c r="M316" s="12"/>
+      <c r="N316" s="12"/>
+      <c r="O316" s="12"/>
+      <c r="P316" s="12"/>
+      <c r="Q316" s="12"/>
+      <c r="R316" s="12"/>
+      <c r="S316" s="12"/>
+      <c r="T316" s="12"/>
     </row>
     <row r="317" spans="1:20">
-      <c r="M317" s="8"/>
-      <c r="N317" s="13"/>
-      <c r="O317" s="13"/>
-      <c r="P317" s="13"/>
-      <c r="Q317" s="13"/>
-      <c r="R317" s="13"/>
-      <c r="S317" s="13"/>
-      <c r="T317" s="13"/>
+      <c r="M317" s="12"/>
+      <c r="N317" s="12"/>
+      <c r="O317" s="12"/>
+      <c r="P317" s="12"/>
+      <c r="Q317" s="12"/>
+      <c r="R317" s="12"/>
+      <c r="S317" s="12"/>
+      <c r="T317" s="12"/>
     </row>
     <row r="318" spans="1:20">
-      <c r="M318" s="13"/>
-      <c r="N318" s="13"/>
-      <c r="O318" s="13"/>
-      <c r="P318" s="13"/>
-      <c r="Q318" s="13"/>
-      <c r="R318" s="13"/>
-      <c r="S318" s="13"/>
-      <c r="T318" s="13"/>
+      <c r="M318" s="12"/>
+      <c r="N318" s="12"/>
+      <c r="O318" s="12"/>
+      <c r="P318" s="12"/>
+      <c r="Q318" s="12"/>
+      <c r="R318" s="12"/>
+      <c r="S318" s="12"/>
+      <c r="T318" s="12"/>
     </row>
     <row r="319" spans="1:20">
-      <c r="M319" s="13"/>
-      <c r="N319" s="13"/>
-      <c r="O319" s="13"/>
-      <c r="P319" s="13"/>
-      <c r="Q319" s="13"/>
-      <c r="R319" s="13"/>
-      <c r="S319" s="13"/>
-      <c r="T319" s="13"/>
+      <c r="M319" s="12"/>
+      <c r="N319" s="12"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="12"/>
+      <c r="Q319" s="12"/>
+      <c r="R319" s="12"/>
+      <c r="S319" s="12"/>
+      <c r="T319" s="12"/>
     </row>
     <row r="320" spans="1:20">
-      <c r="M320" s="13"/>
-      <c r="N320" s="13"/>
-      <c r="O320" s="13"/>
-      <c r="P320" s="13"/>
-      <c r="Q320" s="13"/>
-      <c r="R320" s="13"/>
-      <c r="S320" s="13"/>
-      <c r="T320" s="13"/>
+      <c r="M320" s="12"/>
+      <c r="P320" s="12"/>
+      <c r="Q320" s="12"/>
+      <c r="R320" s="12"/>
+      <c r="S320" s="12"/>
+      <c r="T320" s="12"/>
     </row>
     <row r="321" spans="1:20">
-      <c r="M321" s="13"/>
-      <c r="N321" s="13"/>
-      <c r="O321" s="13"/>
-      <c r="P321" s="13"/>
-      <c r="Q321" s="13"/>
-      <c r="R321" s="13"/>
-      <c r="S321" s="13"/>
-      <c r="T321" s="13"/>
+      <c r="M321" s="12"/>
+      <c r="P321" s="12"/>
+      <c r="Q321" s="12"/>
+      <c r="R321" s="12"/>
+      <c r="S321" s="12"/>
+      <c r="T321" s="12"/>
     </row>
     <row r="322" spans="1:20">
-      <c r="M322" s="13"/>
-      <c r="P322" s="13"/>
-      <c r="Q322" s="13"/>
-      <c r="R322" s="13"/>
-      <c r="S322" s="13"/>
-      <c r="T322" s="13"/>
-    </row>
-    <row r="323" spans="1:20">
-      <c r="M323" s="13"/>
-      <c r="P323" s="13"/>
-      <c r="Q323" s="13"/>
-      <c r="R323" s="13"/>
-      <c r="S323" s="13"/>
-      <c r="T323" s="13"/>
+      <c r="A322">
+        <v>18</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="324" spans="1:20">
-      <c r="A324">
-        <v>18</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="B324" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D324" s="19"/>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="B325" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D325" s="19"/>
     </row>
     <row r="326" spans="1:20">
-      <c r="B326" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C326" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D326" s="20"/>
+      <c r="B326" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D326" s="19"/>
     </row>
     <row r="327" spans="1:20">
-      <c r="B327" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C327" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D327" s="20"/>
+      <c r="B327" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D327" s="19"/>
+      <c r="L327" s="12"/>
     </row>
     <row r="328" spans="1:20">
-      <c r="B328" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C328" s="20" t="s">
+      <c r="L328" s="12"/>
+    </row>
+    <row r="329" spans="1:20">
+      <c r="A329">
+        <v>19</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L329" s="12"/>
+    </row>
+    <row r="330" spans="1:20">
+      <c r="L330" s="12"/>
+    </row>
+    <row r="331" spans="1:20">
+      <c r="B331" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C331" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D331" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D328" s="20"/>
-    </row>
-    <row r="329" spans="1:20">
-      <c r="B329" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C329" s="20" t="s">
+      <c r="E331" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D329" s="20"/>
-      <c r="L329" s="13"/>
-    </row>
-    <row r="330" spans="1:20">
-      <c r="L330" s="13"/>
-    </row>
-    <row r="331" spans="1:20">
-      <c r="A331">
-        <v>19</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L331" s="13"/>
+      <c r="F331" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G331" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H331" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L331" s="12"/>
     </row>
     <row r="332" spans="1:20">
-      <c r="L332" s="13"/>
+      <c r="B332" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C332" s="21">
+        <v>15000</v>
+      </c>
+      <c r="D332" s="21">
+        <v>1</v>
+      </c>
+      <c r="E332" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F332" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G332" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H332" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L332" s="12"/>
     </row>
     <row r="333" spans="1:20">
-      <c r="B333" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C333" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D333" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E333" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F333" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G333" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H333" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="L333" s="13"/>
+      <c r="B333" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C333" s="21">
+        <v>30000</v>
+      </c>
+      <c r="D333" s="21">
+        <v>1</v>
+      </c>
+      <c r="E333" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F333" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G333" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H333" s="37">
+        <v>45047</v>
+      </c>
+      <c r="L333" s="12"/>
     </row>
     <row r="334" spans="1:20">
-      <c r="B334" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C334" s="22">
-        <v>15000</v>
-      </c>
-      <c r="D334" s="22">
-        <v>1</v>
-      </c>
-      <c r="E334" s="22" t="s">
+      <c r="B334" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C334" s="21">
+        <v>60000</v>
+      </c>
+      <c r="D334" s="21">
+        <v>1</v>
+      </c>
+      <c r="E334" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F334" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G334" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H334" s="37">
+        <v>45627</v>
+      </c>
+      <c r="L334" s="12"/>
+    </row>
+    <row r="335" spans="1:20">
+      <c r="B335" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C335" s="21">
+        <v>17000</v>
+      </c>
+      <c r="D335" s="21">
+        <v>1</v>
+      </c>
+      <c r="E335" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F335" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G335" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H335" s="37">
+        <v>45047</v>
+      </c>
+      <c r="L335" s="12"/>
+    </row>
+    <row r="336" spans="1:20">
+      <c r="B336" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C336" s="21">
+        <v>23000</v>
+      </c>
+      <c r="D336" s="21">
+        <v>1</v>
+      </c>
+      <c r="E336" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F334" s="22" t="s">
+      <c r="F336" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G334" s="22" t="s">
+      <c r="G336" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H334" s="22" t="s">
+      <c r="H336" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="L334" s="13"/>
-    </row>
-    <row r="335" spans="1:20">
-      <c r="B335" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C335" s="22">
-        <v>30000</v>
-      </c>
-      <c r="D335" s="22">
-        <v>1</v>
-      </c>
-      <c r="E335" s="22" t="s">
+      <c r="L336" s="12"/>
+    </row>
+    <row r="337" spans="2:12">
+      <c r="B337" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C337" s="21">
+        <v>25000</v>
+      </c>
+      <c r="D337" s="21">
+        <v>2</v>
+      </c>
+      <c r="E337" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F337" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G337" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H337" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L337" s="12"/>
+    </row>
+    <row r="338" spans="2:12">
+      <c r="B338" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C338" s="21">
+        <v>32000</v>
+      </c>
+      <c r="D338" s="21">
+        <v>2</v>
+      </c>
+      <c r="E338" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F338" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G338" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H338" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L338" s="12"/>
+    </row>
+    <row r="339" spans="2:12">
+      <c r="B339" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C339" s="21">
+        <v>16000</v>
+      </c>
+      <c r="D339" s="21">
+        <v>2</v>
+      </c>
+      <c r="E339" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F339" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G339" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H339" s="37">
+        <v>45627</v>
+      </c>
+      <c r="L339" s="12"/>
+    </row>
+    <row r="340" spans="2:12">
+      <c r="B340" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C340" s="21">
+        <v>20000</v>
+      </c>
+      <c r="D340" s="21">
+        <v>2</v>
+      </c>
+      <c r="E340" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F340" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G340" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H340" s="37">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="341" spans="2:12">
+      <c r="B341" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C341" s="21">
+        <v>40000</v>
+      </c>
+      <c r="D341" s="21">
+        <v>2</v>
+      </c>
+      <c r="E341" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F335" s="22" t="s">
+      <c r="F341" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G341" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H341" s="37">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="342" spans="2:12">
+      <c r="B342" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C342" s="21">
+        <v>17000</v>
+      </c>
+      <c r="D342" s="21">
+        <v>1</v>
+      </c>
+      <c r="E342" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F342" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G335" s="22" t="s">
+      <c r="G342" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H335" s="39">
-        <v>45047</v>
-      </c>
-      <c r="L335" s="13"/>
-    </row>
-    <row r="336" spans="1:20">
-      <c r="B336" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C336" s="22">
-        <v>60000</v>
-      </c>
-      <c r="D336" s="22">
-        <v>1</v>
-      </c>
-      <c r="E336" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F336" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G336" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H336" s="39">
-        <v>45627</v>
-      </c>
-      <c r="L336" s="13"/>
-    </row>
-    <row r="337" spans="2:12">
-      <c r="B337" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C337" s="22">
-        <v>17000</v>
-      </c>
-      <c r="D337" s="22">
-        <v>1</v>
-      </c>
-      <c r="E337" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F337" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G337" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H337" s="39">
-        <v>45047</v>
-      </c>
-      <c r="L337" s="13"/>
-    </row>
-    <row r="338" spans="2:12">
-      <c r="B338" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C338" s="22">
-        <v>23000</v>
-      </c>
-      <c r="D338" s="22">
-        <v>1</v>
-      </c>
-      <c r="E338" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F338" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G338" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H338" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L338" s="13"/>
-    </row>
-    <row r="339" spans="2:12">
-      <c r="B339" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C339" s="22">
-        <v>25000</v>
-      </c>
-      <c r="D339" s="22">
-        <v>2</v>
-      </c>
-      <c r="E339" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F339" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G339" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H339" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L339" s="13"/>
-    </row>
-    <row r="340" spans="2:12">
-      <c r="B340" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C340" s="22">
-        <v>32000</v>
-      </c>
-      <c r="D340" s="22">
-        <v>2</v>
-      </c>
-      <c r="E340" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F340" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G340" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H340" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L340" s="13"/>
-    </row>
-    <row r="341" spans="2:12">
-      <c r="B341" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C341" s="22">
-        <v>16000</v>
-      </c>
-      <c r="D341" s="22">
-        <v>2</v>
-      </c>
-      <c r="E341" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F341" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G341" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H341" s="39">
-        <v>45627</v>
-      </c>
-      <c r="L341" s="13"/>
-    </row>
-    <row r="342" spans="2:12">
-      <c r="B342" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C342" s="22">
-        <v>20000</v>
-      </c>
-      <c r="D342" s="22">
-        <v>2</v>
-      </c>
-      <c r="E342" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F342" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G342" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H342" s="39">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="343" spans="2:12">
-      <c r="B343" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C343" s="22">
-        <v>40000</v>
-      </c>
-      <c r="D343" s="22">
-        <v>2</v>
-      </c>
-      <c r="E343" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F343" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G343" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H343" s="39">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="344" spans="2:12">
-      <c r="B344" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C344" s="22">
-        <v>17000</v>
-      </c>
-      <c r="D344" s="22">
-        <v>1</v>
-      </c>
-      <c r="E344" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F344" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G344" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H344" s="39">
+      <c r="H342" s="37">
         <v>45627</v>
       </c>
     </row>

--- a/dbms/Problems 1.xlsx
+++ b/dbms/Problems 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="205">
   <si>
     <t>}</t>
   </si>
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t>SEASON, HOTEL</t>
-  </si>
-  <si>
-    <t>Получится пустое множество</t>
   </si>
   <si>
     <t>A6</t>
@@ -1407,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N166" sqref="N166"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2598,14 +2595,18 @@
       <c r="D108" s="19"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="B109" s="19" t="s">
-        <v>200</v>
+      <c r="B109" s="21">
+        <v>3</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="B110"/>
+      <c r="B110" s="21">
+        <v>17</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
@@ -2928,7 +2929,7 @@
         <v>37</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P158" s="38"/>
       <c r="Q158" s="43"/>
@@ -2960,7 +2961,7 @@
         <v>40</v>
       </c>
       <c r="N159" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P159" s="38"/>
       <c r="Q159" s="43"/>
@@ -2995,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q160" s="32"/>
       <c r="R160" s="32"/>
@@ -3029,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="P161" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="32"/>
@@ -3063,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="P162" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q162" s="32"/>
       <c r="R162" s="32"/>
